--- a/rider/monthly/2017_2.xlsx
+++ b/rider/monthly/2017_2.xlsx
@@ -315,85 +315,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>204</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>259</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>174</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>222</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>238</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>219</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>267</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>103</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>229</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>259</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -511,85 +511,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>210.07</c:v>
+                  <c:v>195.29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>226.31</c:v>
+                  <c:v>222.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.29</c:v>
+                  <c:v>238.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>118.8</c:v>
+                  <c:v>120.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.38</c:v>
+                  <c:v>101.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>230.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>206.27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>199.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>225.93</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>206.73</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>210.87</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>227.14</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>236.07</c:v>
+                  <c:v>238.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117.31</c:v>
+                  <c:v>118.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>104</c:v>
+                  <c:v>102.93</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>225.47</c:v>
+                  <c:v>229.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209.19</c:v>
+                  <c:v>208.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>213.81</c:v>
+                  <c:v>203.62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>229.2</c:v>
+                  <c:v>229.67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>237.12</c:v>
+                  <c:v>238.69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118.88</c:v>
+                  <c:v>120.06</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>103.67</c:v>
+                  <c:v>102.47</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>208.65</c:v>
+                  <c:v>209.12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>215.65</c:v>
+                  <c:v>208.59</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>230.25</c:v>
+                  <c:v>230.38</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>238.88</c:v>
+                  <c:v>239.82</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>118</c:v>
+                  <c:v>118.83</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>102.94</c:v>
+                  <c:v>101.88</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>225.69</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>211.44</c:v>
+                  <c:v>210.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,10 +1230,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D2">
-        <v>210.07</v>
+        <v>195.29</v>
       </c>
       <c r="E2">
         <v>103.35</v>
@@ -1247,10 +1247,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D3">
-        <v>226.31</v>
+        <v>222.46</v>
       </c>
       <c r="E3">
         <v>103.51</v>
@@ -1264,10 +1264,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D4">
-        <v>237.29</v>
+        <v>238.64</v>
       </c>
       <c r="E4">
         <v>103.68</v>
@@ -1281,10 +1281,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5">
-        <v>118.8</v>
+        <v>120.2</v>
       </c>
       <c r="E5">
         <v>103.84</v>
@@ -1298,10 +1298,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>102.38</v>
+        <v>101.08</v>
       </c>
       <c r="E6">
         <v>104</v>
@@ -1315,10 +1315,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7">
-        <v>225.93</v>
+        <v>230.71</v>
       </c>
       <c r="E7">
         <v>104.16</v>
@@ -1332,10 +1332,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D8">
-        <v>206.73</v>
+        <v>206.27</v>
       </c>
       <c r="E8">
         <v>104.32</v>
@@ -1349,10 +1349,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="D9">
-        <v>210.87</v>
+        <v>199.6</v>
       </c>
       <c r="E9">
         <v>104.48</v>
@@ -1366,10 +1366,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="D10">
-        <v>227.14</v>
+        <v>225.93</v>
       </c>
       <c r="E10">
         <v>104.64</v>
@@ -1383,10 +1383,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D11">
-        <v>236.07</v>
+        <v>238.2</v>
       </c>
       <c r="E11">
         <v>104.81</v>
@@ -1403,7 +1403,7 @@
         <v>95</v>
       </c>
       <c r="D12">
-        <v>117.31</v>
+        <v>118.62</v>
       </c>
       <c r="E12">
         <v>104.97</v>
@@ -1417,10 +1417,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D13">
-        <v>104</v>
+        <v>102.93</v>
       </c>
       <c r="E13">
         <v>105.13</v>
@@ -1434,10 +1434,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D14">
-        <v>225.47</v>
+        <v>229.2</v>
       </c>
       <c r="E14">
         <v>105.29</v>
@@ -1451,10 +1451,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D15">
-        <v>209.19</v>
+        <v>208.5</v>
       </c>
       <c r="E15">
         <v>105.45</v>
@@ -1468,10 +1468,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D16">
-        <v>213.81</v>
+        <v>203.62</v>
       </c>
       <c r="E16">
         <v>105.61</v>
@@ -1485,10 +1485,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="D17">
-        <v>229.2</v>
+        <v>229.67</v>
       </c>
       <c r="E17">
         <v>105.77</v>
@@ -1502,10 +1502,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D18">
-        <v>237.12</v>
+        <v>238.69</v>
       </c>
       <c r="E18">
         <v>105.94</v>
@@ -1519,10 +1519,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19">
-        <v>118.88</v>
+        <v>120.06</v>
       </c>
       <c r="E19">
         <v>106.1</v>
@@ -1536,10 +1536,10 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D20">
-        <v>103.67</v>
+        <v>102.47</v>
       </c>
       <c r="E20">
         <v>106.26</v>
@@ -1553,10 +1553,10 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D21">
-        <v>208.65</v>
+        <v>209.12</v>
       </c>
       <c r="E21">
         <v>106.58</v>
@@ -1570,10 +1570,10 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="D22">
-        <v>215.65</v>
+        <v>208.59</v>
       </c>
       <c r="E22">
         <v>106.74</v>
@@ -1587,10 +1587,10 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D23">
-        <v>230.25</v>
+        <v>230.38</v>
       </c>
       <c r="E23">
         <v>106.9</v>
@@ -1604,10 +1604,10 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D24">
-        <v>238.88</v>
+        <v>239.82</v>
       </c>
       <c r="E24">
         <v>107.07</v>
@@ -1621,10 +1621,10 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D25">
-        <v>118</v>
+        <v>118.83</v>
       </c>
       <c r="E25">
         <v>107.23</v>
@@ -1638,10 +1638,10 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>102.94</v>
+        <v>101.88</v>
       </c>
       <c r="E26">
         <v>107.39</v>
@@ -1655,10 +1655,10 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D27">
-        <v>225.69</v>
+        <v>230</v>
       </c>
       <c r="E27">
         <v>107.55</v>
@@ -1672,10 +1672,10 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D28">
-        <v>211.44</v>
+        <v>210.72</v>
       </c>
       <c r="E28">
         <v>107.71</v>
